--- a/input/Tabla ejemplo agregado.xlsx
+++ b/input/Tabla ejemplo agregado.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicolasBernal\Documents\GitHub\Datos-Colombia\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00BDB0E-8A65-4414-94A9-FB7AFB0BF8DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44277056-E0A4-40E4-AC8B-529BEB783DEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A35ABADA-E7F9-4771-843D-FB690C1B8FE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A35ABADA-E7F9-4771-843D-FB690C1B8FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Agrupadas G" sheetId="2" r:id="rId2"/>
+    <sheet name="Agrupadas E" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
   <si>
     <t>IDENTIFICADOR DE USUARIO ÚNICO</t>
   </si>
@@ -316,6 +318,54 @@
   </si>
   <si>
     <t>patologia_agrupada</t>
+  </si>
+  <si>
+    <t>Condiciones Contagio</t>
+  </si>
+  <si>
+    <t>Condiciones Persona</t>
+  </si>
+  <si>
+    <t>Características Muestras</t>
+  </si>
+  <si>
+    <t>Medidas Adoptadas</t>
+  </si>
+  <si>
+    <t>retail_and_recreation_percent_change_from_baseline a día notificación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grocery_and_pharmacy_percent_change_from_baseline a día notificación</t>
+  </si>
+  <si>
+    <t>parks_percent_change_from_baseline a día notificación</t>
+  </si>
+  <si>
+    <t>transit_stations_percent_change_from_baseline a día notificación</t>
+  </si>
+  <si>
+    <t>workplaces_percent_change_from_baseline a día notificación</t>
+  </si>
+  <si>
+    <t>residential_percent_change_from_baseline a día notificación</t>
+  </si>
+  <si>
+    <t>retail_and_recreation_percent_change_from_baseline a hoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grocery_and_pharmacy_percent_change_from_baseline a hoy</t>
+  </si>
+  <si>
+    <t>parks_percent_change_from_baseline a hoy</t>
+  </si>
+  <si>
+    <t>transit_stations_percent_change_from_baseline a hoy</t>
+  </si>
+  <si>
+    <t>workplaces_percent_change_from_baseline a hoy</t>
+  </si>
+  <si>
+    <t>residential_percent_change_from_baseline a hoy</t>
   </si>
 </sst>
 </file>
@@ -410,15 +460,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -736,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64AF178-2ED2-4B1C-AD84-A15BEC35D2B2}">
   <dimension ref="D1:CJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY2" workbookViewId="0">
-      <selection activeCell="AZ4" sqref="AZ4"/>
+    <sheetView topLeftCell="BZ2" workbookViewId="0">
+      <selection activeCell="AZ3" sqref="AZ3:CJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,36 +873,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="10" t="s">
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="AY2" s="9"/>
+      <c r="AY2" s="7"/>
     </row>
     <row r="3" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="8"/>
+      <c r="R3" s="10"/>
       <c r="S3" t="s">
         <v>16</v>
       </c>
@@ -868,26 +918,26 @@
       <c r="W3" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8" t="s">
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8" t="s">
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="8"/>
+      <c r="AK3" s="10"/>
       <c r="AL3" t="s">
         <v>38</v>
       </c>
@@ -927,50 +977,50 @@
       <c r="AX3" t="s">
         <v>54</v>
       </c>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="8" t="s">
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8" t="s">
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="8"/>
-      <c r="BV3" s="8"/>
-      <c r="BW3" s="8"/>
-      <c r="BX3" s="8"/>
-      <c r="BY3" s="8" t="s">
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BZ3" s="8"/>
-      <c r="CA3" s="8"/>
-      <c r="CB3" s="8"/>
-      <c r="CC3" s="8"/>
-      <c r="CD3" s="8"/>
-      <c r="CE3" s="8"/>
-      <c r="CF3" s="8"/>
-      <c r="CG3" s="8"/>
-      <c r="CH3" s="8"/>
-      <c r="CI3" s="8"/>
-      <c r="CJ3" s="8"/>
+      <c r="BZ3" s="10"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
     </row>
     <row r="4" spans="4:88" ht="16.5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -1114,7 +1164,7 @@
       <c r="AX4" t="s">
         <v>56</v>
       </c>
-      <c r="AY4" s="9"/>
+      <c r="AY4" s="7"/>
       <c r="AZ4" s="5" t="s">
         <v>58</v>
       </c>
@@ -1130,7 +1180,7 @@
       <c r="BD4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BE4" s="11" t="s">
+      <c r="BE4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="BF4" t="s">
@@ -1231,7 +1281,7 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="AY5" s="9"/>
+      <c r="AY5" s="7"/>
     </row>
     <row r="6" spans="4:88" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
@@ -1239,7 +1289,7 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="3"/>
-      <c r="AY6" s="9"/>
+      <c r="AY6" s="7"/>
     </row>
     <row r="7" spans="4:88" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
@@ -1247,7 +1297,7 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="3"/>
-      <c r="AY7" s="9"/>
+      <c r="AY7" s="7"/>
     </row>
     <row r="8" spans="4:88" ht="16.5" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
@@ -1258,7 +1308,7 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="3"/>
-      <c r="AY8" s="9"/>
+      <c r="AY8" s="7"/>
     </row>
     <row r="9" spans="4:88" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
@@ -1267,39 +1317,39 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="3"/>
       <c r="AI9" s="6"/>
-      <c r="AY9" s="9"/>
+      <c r="AY9" s="7"/>
     </row>
     <row r="10" spans="4:88" x14ac:dyDescent="0.25">
       <c r="AI10" s="4"/>
-      <c r="AY10" s="9"/>
+      <c r="AY10" s="7"/>
     </row>
     <row r="11" spans="4:88" ht="16.5" x14ac:dyDescent="0.25">
       <c r="AI11" s="6"/>
-      <c r="AY11" s="9"/>
+      <c r="AY11" s="7"/>
       <c r="BT11" s="5"/>
       <c r="BU11" s="5"/>
     </row>
     <row r="12" spans="4:88" ht="16.5" x14ac:dyDescent="0.25">
       <c r="AI12" s="4"/>
-      <c r="AY12" s="9"/>
+      <c r="AY12" s="7"/>
       <c r="BT12" s="5"/>
       <c r="BU12" s="5"/>
     </row>
     <row r="13" spans="4:88" x14ac:dyDescent="0.25">
       <c r="AI13" s="6"/>
-      <c r="AY13" s="9"/>
+      <c r="AY13" s="7"/>
     </row>
     <row r="14" spans="4:88" x14ac:dyDescent="0.25">
       <c r="AI14" s="4"/>
-      <c r="AY14" s="9"/>
+      <c r="AY14" s="7"/>
     </row>
     <row r="15" spans="4:88" x14ac:dyDescent="0.25">
       <c r="AI15" s="6"/>
-      <c r="AY15" s="9"/>
+      <c r="AY15" s="7"/>
     </row>
     <row r="16" spans="4:88" x14ac:dyDescent="0.25">
       <c r="AI16" s="4"/>
-      <c r="AY16" s="9"/>
+      <c r="AY16" s="7"/>
     </row>
     <row r="17" spans="35:35" x14ac:dyDescent="0.25">
       <c r="AI17" s="6"/>
@@ -1342,4 +1392,418 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0D90D8-C905-477D-A627-694DE01FC6AD}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AZ3" sqref="AZ3:CJ4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8FB153-0978-4310-8DBA-CAD6FA9F35A9}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>